--- a/path_to_your_upload_directory/food.xlsx
+++ b/path_to_your_upload_directory/food.xlsx
@@ -26,21 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>categoryid</t>
-  </si>
-  <si>
-    <t>cuisineid</t>
-  </si>
-  <si>
     <t>indhu</t>
   </si>
   <si>
@@ -81,6 +66,21 @@
   </si>
   <si>
     <t>kg</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Categoryid</t>
+  </si>
+  <si>
+    <t>Cuisineid</t>
   </si>
 </sst>
 </file>
@@ -96,10 +96,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF00A67D"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <name val="Segoe UI Semibold"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -408,34 +409,40 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>54</v>
@@ -444,15 +451,15 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>53</v>
@@ -461,15 +468,15 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -478,15 +485,15 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>5445</v>
@@ -495,15 +502,15 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>54</v>
@@ -512,15 +519,15 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>45</v>
@@ -529,15 +536,15 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -546,15 +553,15 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>54</v>
@@ -563,15 +570,15 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -580,15 +587,15 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -597,15 +604,15 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>54</v>
@@ -614,15 +621,15 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -631,10 +638,11 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>